--- a/biology/Botanique/Jardin_des_Moines-de-Tibhirine/Jardin_des_Moines-de-Tibhirine.xlsx
+++ b/biology/Botanique/Jardin_des_Moines-de-Tibhirine/Jardin_des_Moines-de-Tibhirine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin des Moines-de-Tibhirine, anciennement square Saint-Ambroise, est un espace vert du 11e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 71 bis, boulevard Voltaire.
 Il est desservi par la ligne 9 à la station Saint-Ambroise.
@@ -544,9 +558,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il rend honneur aux moines de Tibhirine assassinés en 1996[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rend honneur aux moines de Tibhirine assassinés en 1996.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Créé en 1871 le jardin a été aménagé à l'emplacement de la première église Saint-Ambroise (Notre-Dame de la Procession, chapelle de l'ancien couvent des Annonciades de Popincourt), détruite en 1870 lors du percement de l'ancien boulevard du Prince-Eugène, lui-même rebaptisé « boulevard Voltaire » en 1871.
 Initialement dénommé « square Saint-Ambroise », l'endroit est rebaptisé « jardin des Moines-de-Tibhirine » le 30 mai 2016.
@@ -607,9 +625,11 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec l'aide du sculpteur G. Chance, les habitants du quartier et les passants ont réalisé pour les soixante ans du Secours catholique la sculpture L'Accueil[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec l'aide du sculpteur G. Chance, les habitants du quartier et les passants ont réalisé pour les soixante ans du Secours catholique la sculpture L'Accueil.
 </t>
         </is>
       </c>
